--- a/tools/nist/sp-800-218/nist-ssdf-1.1.xlsx
+++ b/tools/nist/sp-800-218/nist-ssdf-1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/nist/sp-800-218/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E5C9D3-084B-154F-85D6-F82512197E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F863718-537C-3440-8365-FA3D854465C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,9 +794,6 @@
     <t>library_locale</t>
   </si>
   <si>
-    <t>fr</t>
-  </si>
-  <si>
     <t>library_ref_id</t>
   </si>
   <si>
@@ -855,15 +852,25 @@
   </si>
   <si>
     <t>The Secure Software Development Framework (SSDF), SP 800-218, is a set of fundamental, sound, and secure software development practices based on established secure software development practice documents from organizations such as BSA, OWASP, and SAFECode</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -923,34 +930,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,7 +1268,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1283,7 @@
         <v>201</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,99 +1298,99 @@
       <c r="A3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>204</v>
+      <c r="B3" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/tools/nist/sp-800-218/nist-ssdf-1.1.xlsx
+++ b/tools/nist/sp-800-218/nist-ssdf-1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/nist/sp-800-218/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F863718-537C-3440-8365-FA3D854465C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35304EB9-2985-8442-99F2-DE07B99D3257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="226">
   <si>
     <t>assessable</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>With the exception of material marked as copyrighted, information presented on NIST sites are considered public information and may be distributed or copied.</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -960,6 +963,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1274,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,8 +1336,8 @@
       <c r="A7" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>222</v>
+      <c r="B7" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
